--- a/template_gushi/4定案表模板.xlsx
+++ b/template_gushi/4定案表模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12375"/>
+    <workbookView windowWidth="25600" windowHeight="10480"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -62,7 +62,7 @@
   </si>
   <si>
     <t>委托书编号：
-固财预评〔2023〕-221号</t>
+某财预评〔2023〕-221号</t>
   </si>
   <si>
     <t>设计单位</t>
@@ -1991,10 +1991,10 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:H4"/>
+      <selection activeCell="F2" sqref="F2:H2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="33.8166666666667" customWidth="1"/>
@@ -2210,7 +2210,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="29.25" customWidth="1"/>
@@ -2313,7 +2313,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -2329,7 +2329,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" ht="15" hidden="1" customHeight="1" spans="1:8">
+    <row r="7" hidden="1" customHeight="1" spans="1:8">
       <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
@@ -2435,7 +2435,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="11.625" customWidth="1"/>
     <col min="2" max="2" width="29.25" customWidth="1"/>
@@ -2538,7 +2538,7 @@
       <c r="G5" s="30"/>
       <c r="H5" s="31"/>
     </row>
-    <row r="6" ht="15" customHeight="1" spans="1:8">
+    <row r="6" customHeight="1" spans="1:8">
       <c r="A6" s="32" t="s">
         <v>13</v>
       </c>
@@ -2554,7 +2554,7 @@
       <c r="G6" s="35"/>
       <c r="H6" s="37"/>
     </row>
-    <row r="7" ht="15" hidden="1" customHeight="1" spans="1:8">
+    <row r="7" hidden="1" customHeight="1" spans="1:8">
       <c r="A7" s="38"/>
       <c r="B7" s="39"/>
       <c r="C7" s="40"/>
